--- a/文档/需求获取/QFD/SRA2021-G11-QFD 用户打分结果.xlsx
+++ b/文档/需求获取/QFD/SRA2021-G11-QFD 用户打分结果.xlsx
@@ -409,10 +409,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -460,44 +460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -506,7 +468,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,8 +489,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -545,16 +514,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,10 +575,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,16 +589,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,13 +619,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,31 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +703,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,61 +769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,37 +793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,15 +998,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1033,11 +1024,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,23 +1072,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,10 +1103,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1115,37 +1115,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1154,98 +1154,98 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1378,16 +1378,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1743,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:K33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="X54" sqref="X54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1976,7 +1970,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="46"/>
+      <c r="U16" s="45"/>
     </row>
     <row r="17" ht="15.15" spans="1:21">
       <c r="A17" s="12" t="s">
@@ -2103,7 +2097,7 @@
       <c r="S20" s="37"/>
       <c r="T20" s="36">
         <f>(1.5*L20+N20)/(SUM(1.5*L20:L82)+SUM(N20:N82))/(((P20/SUM(P20:P82)))+((R20/SUM(R20:R82))))</f>
-        <v>1.43573172746801</v>
+        <v>1.41445223876705</v>
       </c>
       <c r="U20" s="37"/>
     </row>
@@ -2141,7 +2135,7 @@
       <c r="S21" s="37"/>
       <c r="T21" s="36">
         <f t="shared" ref="T21:T52" si="0">(1.5*L21+N21)/(SUM(1.5*L21:L83)+SUM(N21:N83))/(((P21/SUM(P21:P83)))+((R21/SUM(R21:R83))))</f>
-        <v>1.58210389936055</v>
+        <v>1.55867130493806</v>
       </c>
       <c r="U21" s="37"/>
     </row>
@@ -2179,7 +2173,7 @@
       <c r="S22" s="37"/>
       <c r="T22" s="36">
         <f t="shared" si="0"/>
-        <v>1.32106317898956</v>
+        <v>1.30248784338183</v>
       </c>
       <c r="U22" s="37"/>
     </row>
@@ -2217,7 +2211,7 @@
       <c r="S23" s="37"/>
       <c r="T23" s="36">
         <f t="shared" si="0"/>
-        <v>1.22423586068643</v>
+        <v>1.20526408141779</v>
       </c>
       <c r="U23" s="37"/>
     </row>
@@ -2255,7 +2249,7 @@
       <c r="S24" s="37"/>
       <c r="T24" s="36">
         <f t="shared" si="0"/>
-        <v>1.06034870541841</v>
+        <v>1.04360488121429</v>
       </c>
       <c r="U24" s="37"/>
     </row>
@@ -2320,7 +2314,7 @@
       <c r="S26" s="37"/>
       <c r="T26" s="36">
         <f t="shared" si="0"/>
-        <v>0.988568016038903</v>
+        <v>0.973150966697369</v>
       </c>
       <c r="U26" s="37"/>
     </row>
@@ -2385,7 +2379,7 @@
       <c r="S28" s="37"/>
       <c r="T28" s="36">
         <f t="shared" si="0"/>
-        <v>1.31526504583499</v>
+        <v>1.293051324556</v>
       </c>
       <c r="U28" s="37"/>
     </row>
@@ -2423,7 +2417,7 @@
       <c r="S29" s="37"/>
       <c r="T29" s="36">
         <f t="shared" si="0"/>
-        <v>1.43192567758249</v>
+        <v>1.4083917804848</v>
       </c>
       <c r="U29" s="37"/>
     </row>
@@ -2488,7 +2482,7 @@
       <c r="S31" s="37"/>
       <c r="T31" s="36">
         <f t="shared" si="0"/>
-        <v>1.05474452554745</v>
+        <v>1.0365586003637</v>
       </c>
       <c r="U31" s="37"/>
     </row>
@@ -2526,7 +2520,7 @@
       <c r="S32" s="37"/>
       <c r="T32" s="36">
         <f t="shared" si="0"/>
-        <v>1.04887139392343</v>
+        <v>1.03076409286817</v>
       </c>
       <c r="U32" s="37"/>
     </row>
@@ -2564,7 +2558,7 @@
       <c r="S33" s="37"/>
       <c r="T33" s="36">
         <f t="shared" si="0"/>
-        <v>0.979717005140734</v>
+        <v>0.962136526201213</v>
       </c>
       <c r="U33" s="37"/>
     </row>
@@ -2602,7 +2596,7 @@
       <c r="S34" s="37"/>
       <c r="T34" s="36">
         <f t="shared" si="0"/>
-        <v>1.41761980896159</v>
+        <v>1.39098170451631</v>
       </c>
       <c r="U34" s="37"/>
     </row>
@@ -2667,7 +2661,7 @@
       <c r="S36" s="37"/>
       <c r="T36" s="36">
         <f t="shared" si="0"/>
-        <v>1.55838666827678</v>
+        <v>1.53008992075477</v>
       </c>
       <c r="U36" s="37"/>
     </row>
@@ -2695,19 +2689,19 @@
         <v>6</v>
       </c>
       <c r="O37" s="43"/>
-      <c r="P37" s="44">
+      <c r="P37" s="42">
         <v>6</v>
       </c>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="44">
+      <c r="Q37" s="43"/>
+      <c r="R37" s="42">
         <v>4</v>
       </c>
-      <c r="S37" s="47"/>
-      <c r="T37" s="44">
+      <c r="S37" s="43"/>
+      <c r="T37" s="42">
         <f t="shared" si="0"/>
-        <v>1.0706303679186</v>
-      </c>
-      <c r="U37" s="47"/>
+        <v>1.05082699526862</v>
+      </c>
+      <c r="U37" s="43"/>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="15">
@@ -2761,16 +2755,16 @@
       </c>
       <c r="O39" s="37"/>
       <c r="P39" s="36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q39" s="37"/>
       <c r="R39" s="36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S39" s="37"/>
       <c r="T39" s="36">
-        <f>(1.5*L39+N39)/(SUM(1.5*L39:L100)+SUM(N39:N100))/(((P39/SUM(P39:P100)))+((R39/SUM(R39:R100))))</f>
-        <v>0.9750444500889</v>
+        <f t="shared" ref="T39:T53" si="1">(1.5*L39+N39)/(SUM(1.5*L39:L100)+SUM(N39:N100))/(((P39/SUM(P39:P100)))+((R39/SUM(R39:R100))))</f>
+        <v>2.14233870967742</v>
       </c>
       <c r="U39" s="37"/>
     </row>
@@ -2807,7 +2801,7 @@
       </c>
       <c r="S40" s="37"/>
       <c r="T40" s="36">
-        <f>(1.5*L40+N40)/(SUM(1.5*L40:L101)+SUM(N40:N101))/(((P40/SUM(P40:P101)))+((R40/SUM(R40:R101))))</f>
+        <f t="shared" si="1"/>
         <v>2.16517910842736</v>
       </c>
       <c r="U40" s="37"/>
@@ -2845,7 +2839,7 @@
       </c>
       <c r="S41" s="37"/>
       <c r="T41" s="36">
-        <f>(1.5*L41+N41)/(SUM(1.5*L41:L102)+SUM(N41:N102))/(((P41/SUM(P41:P102)))+((R41/SUM(R41:R102))))</f>
+        <f t="shared" si="1"/>
         <v>2.18927583605733</v>
       </c>
       <c r="U41" s="37"/>
@@ -2883,7 +2877,7 @@
       </c>
       <c r="S42" s="37"/>
       <c r="T42" s="36">
-        <f>(1.5*L42+N42)/(SUM(1.5*L42:L103)+SUM(N42:N103))/(((P42/SUM(P42:P103)))+((R42/SUM(R42:R103))))</f>
+        <f t="shared" si="1"/>
         <v>1.37610629595603</v>
       </c>
       <c r="U42" s="37"/>
@@ -2921,7 +2915,7 @@
       </c>
       <c r="S43" s="37"/>
       <c r="T43" s="36">
-        <f>(1.5*L43+N43)/(SUM(1.5*L43:L104)+SUM(N43:N104))/(((P43/SUM(P43:P104)))+((R43/SUM(R43:R104))))</f>
+        <f t="shared" si="1"/>
         <v>1.63147898880755</v>
       </c>
       <c r="U43" s="37"/>
@@ -2959,7 +2953,7 @@
       </c>
       <c r="S44" s="37"/>
       <c r="T44" s="36">
-        <f>(1.5*L44+N44)/(SUM(1.5*L44:L105)+SUM(N44:N105))/(((P44/SUM(P44:P105)))+((R44/SUM(R44:R105))))</f>
+        <f t="shared" si="1"/>
         <v>2.25441176470588</v>
       </c>
       <c r="U44" s="37"/>
@@ -2997,7 +2991,7 @@
       </c>
       <c r="S45" s="37"/>
       <c r="T45" s="36">
-        <f>(1.5*L45+N45)/(SUM(1.5*L45:L106)+SUM(N45:N106))/(((P45/SUM(P45:P106)))+((R45/SUM(R45:R106))))</f>
+        <f t="shared" si="1"/>
         <v>1.14383859153521</v>
       </c>
       <c r="U45" s="37"/>
@@ -3035,7 +3029,7 @@
       </c>
       <c r="S46" s="37"/>
       <c r="T46" s="36">
-        <f>(1.5*L46+N46)/(SUM(1.5*L46:L107)+SUM(N46:N107))/(((P46/SUM(P46:P107)))+((R46/SUM(R46:R107))))</f>
+        <f t="shared" si="1"/>
         <v>1.21389744276342</v>
       </c>
       <c r="U46" s="37"/>
@@ -3055,7 +3049,7 @@
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
-      <c r="K47" s="45"/>
+      <c r="K47" s="44"/>
       <c r="L47" s="36">
         <v>9</v>
       </c>
@@ -3073,7 +3067,7 @@
       </c>
       <c r="S47" s="37"/>
       <c r="T47" s="36">
-        <f>(1.5*L47+N47)/(SUM(1.5*L47:L108)+SUM(N47:N108))/(((P47/SUM(P47:P108)))+((R47/SUM(R47:R108))))</f>
+        <f t="shared" si="1"/>
         <v>1.1343523300273</v>
       </c>
       <c r="U47" s="37"/>
@@ -3111,7 +3105,7 @@
       </c>
       <c r="S48" s="37"/>
       <c r="T48" s="36">
-        <f>(1.5*L48+N48)/(SUM(1.5*L48:L109)+SUM(N48:N109))/(((P48/SUM(P48:P109)))+((R48/SUM(R48:R109))))</f>
+        <f t="shared" si="1"/>
         <v>1.12893096951838</v>
       </c>
       <c r="U48" s="37"/>
@@ -3149,7 +3143,7 @@
       </c>
       <c r="S49" s="37"/>
       <c r="T49" s="36">
-        <f>(1.5*L49+N49)/(SUM(1.5*L49:L110)+SUM(N49:N110))/(((P49/SUM(P49:P110)))+((R49/SUM(R49:R110))))</f>
+        <f t="shared" si="1"/>
         <v>1.29061920047249</v>
       </c>
       <c r="U49" s="37"/>
@@ -3187,7 +3181,7 @@
       </c>
       <c r="S50" s="37"/>
       <c r="T50" s="36">
-        <f>(1.5*L50+N50)/(SUM(1.5*L50:L111)+SUM(N50:N111))/(((P50/SUM(P50:P111)))+((R50/SUM(R50:R111))))</f>
+        <f t="shared" si="1"/>
         <v>1.13061326317699</v>
       </c>
       <c r="U50" s="37"/>
@@ -3225,7 +3219,7 @@
       </c>
       <c r="S51" s="37"/>
       <c r="T51" s="36">
-        <f>(1.5*L51+N51)/(SUM(1.5*L51:L112)+SUM(N51:N112))/(((P51/SUM(P51:P112)))+((R51/SUM(R51:R112))))</f>
+        <f t="shared" si="1"/>
         <v>2.25111155024207</v>
       </c>
       <c r="U51" s="37"/>
@@ -3263,7 +3257,7 @@
       </c>
       <c r="S52" s="37"/>
       <c r="T52" s="36">
-        <f>(1.5*L52+N52)/(SUM(1.5*L52:L113)+SUM(N52:N113))/(((P52/SUM(P52:P113)))+((R52/SUM(R52:R113))))</f>
+        <f t="shared" si="1"/>
         <v>1.5553084371469</v>
       </c>
       <c r="U52" s="37"/>
@@ -3301,7 +3295,7 @@
       </c>
       <c r="S53" s="37"/>
       <c r="T53" s="36">
-        <f>(1.5*L53+N53)/(SUM(1.5*L53:L114)+SUM(N53:N114))/(((P53/SUM(P53:P114)))+((R53/SUM(R53:R114))))</f>
+        <f t="shared" si="1"/>
         <v>1.15772904906644</v>
       </c>
       <c r="U53" s="37"/>
@@ -3339,7 +3333,7 @@
       </c>
       <c r="S54" s="37"/>
       <c r="T54" s="36">
-        <f t="shared" ref="T54:T77" si="1">(1.5*L54+N54)/(SUM(1.5*L54:L115)+SUM(N54:N115))/(((P54/SUM(P54:P115)))+((R54/SUM(R54:R115))))</f>
+        <f t="shared" ref="T54:T77" si="2">(1.5*L54+N54)/(SUM(1.5*L54:L115)+SUM(N54:N115))/(((P54/SUM(P54:P115)))+((R54/SUM(R54:R115))))</f>
         <v>1.1532728736384</v>
       </c>
       <c r="U54" s="37"/>
@@ -3377,7 +3371,7 @@
       </c>
       <c r="S55" s="37"/>
       <c r="T55" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.38245085107719</v>
       </c>
       <c r="U55" s="37"/>
@@ -3415,7 +3409,7 @@
       </c>
       <c r="S56" s="37"/>
       <c r="T56" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.38768358952599</v>
       </c>
       <c r="U56" s="37"/>
@@ -3453,7 +3447,7 @@
       </c>
       <c r="S57" s="37"/>
       <c r="T57" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.19335231207202</v>
       </c>
       <c r="U57" s="37"/>
@@ -3491,7 +3485,7 @@
       </c>
       <c r="S58" s="37"/>
       <c r="T58" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.36094674556213</v>
       </c>
       <c r="U58" s="37"/>
@@ -3529,7 +3523,7 @@
       </c>
       <c r="S59" s="37"/>
       <c r="T59" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.55985680003147</v>
       </c>
       <c r="U59" s="37"/>
@@ -3567,7 +3561,7 @@
       </c>
       <c r="S60" s="37"/>
       <c r="T60" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.07542975696503</v>
       </c>
       <c r="U60" s="37"/>
@@ -3605,7 +3599,7 @@
       </c>
       <c r="S61" s="37"/>
       <c r="T61" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.06481481481481</v>
       </c>
       <c r="U61" s="37"/>
@@ -3643,7 +3637,7 @@
       </c>
       <c r="S62" s="37"/>
       <c r="T62" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.65338585062869</v>
       </c>
       <c r="U62" s="37"/>
@@ -3681,7 +3675,7 @@
       </c>
       <c r="S63" s="37"/>
       <c r="T63" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.26782904421095</v>
       </c>
       <c r="U63" s="37"/>
@@ -3719,7 +3713,7 @@
       </c>
       <c r="S64" s="37"/>
       <c r="T64" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25840647441012</v>
       </c>
       <c r="U64" s="37"/>
@@ -3757,7 +3751,7 @@
       </c>
       <c r="S65" s="37"/>
       <c r="T65" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.26289838035528</v>
       </c>
       <c r="U65" s="37"/>
@@ -3795,7 +3789,7 @@
       </c>
       <c r="S66" s="37"/>
       <c r="T66" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.15514474613261</v>
       </c>
       <c r="U66" s="37"/>
@@ -3833,7 +3827,7 @@
       </c>
       <c r="S67" s="37"/>
       <c r="T67" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.73239436619718</v>
       </c>
       <c r="U67" s="37"/>
@@ -3871,7 +3865,7 @@
       </c>
       <c r="S68" s="37"/>
       <c r="T68" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.06549059402076</v>
       </c>
       <c r="U68" s="37"/>
@@ -3909,7 +3903,7 @@
       </c>
       <c r="S69" s="37"/>
       <c r="T69" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.04600323163197</v>
       </c>
       <c r="U69" s="37"/>
@@ -3947,7 +3941,7 @@
       </c>
       <c r="S70" s="37"/>
       <c r="T70" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1283792608071</v>
       </c>
       <c r="U70" s="37"/>
@@ -3985,7 +3979,7 @@
       </c>
       <c r="S71" s="37"/>
       <c r="T71" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.952700791855204</v>
       </c>
       <c r="U71" s="37"/>
@@ -4023,7 +4017,7 @@
       </c>
       <c r="S72" s="37"/>
       <c r="T72" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.862192393736018</v>
       </c>
       <c r="U72" s="37"/>
@@ -4061,7 +4055,7 @@
       </c>
       <c r="S73" s="37"/>
       <c r="T73" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0507792860734</v>
       </c>
       <c r="U73" s="37"/>
@@ -4099,7 +4093,7 @@
       </c>
       <c r="S74" s="37"/>
       <c r="T74" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.878647910980474</v>
       </c>
       <c r="U74" s="37"/>
@@ -4137,7 +4131,7 @@
       </c>
       <c r="S75" s="37"/>
       <c r="T75" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.857568978374348</v>
       </c>
       <c r="U75" s="37"/>
@@ -4175,7 +4169,7 @@
       </c>
       <c r="S76" s="37"/>
       <c r="T76" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.742574257425743</v>
       </c>
       <c r="U76" s="37"/>
@@ -4213,7 +4207,7 @@
       </c>
       <c r="S77" s="37"/>
       <c r="T77" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="U77" s="37"/>
@@ -4222,13 +4216,13 @@
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
       <c r="C78" s="22"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
       <c r="K78" s="23"/>
       <c r="L78" s="36"/>
       <c r="M78" s="37"/>
@@ -4245,13 +4239,13 @@
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="22"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
       <c r="K79" s="23"/>
       <c r="L79" s="36"/>
       <c r="M79" s="37"/>
